--- a/target/classes/P11_DataProvider/TD1.xlsx
+++ b/target/classes/P11_DataProvider/TD1.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\3rdFebRestAssured\src\main\java\P11_DataProvider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E273A5CA-3636-43DE-8665-1D5362AC2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{63063FA6-824F-4DFE-B691-C6C65F9BC11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Service Base URL</t>
   </si>
@@ -88,6 +85,72 @@
   </si>
   <si>
     <t>Gn</t>
+  </si>
+  <si>
+    <t>/friends/1</t>
+  </si>
+  <si>
+    <t>/friends/2</t>
+  </si>
+  <si>
+    <t>TC1_getUser</t>
+  </si>
+  <si>
+    <t>https://reqres.in</t>
+  </si>
+  <si>
+    <t>/api/users/2</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>TC2_postUser</t>
+  </si>
+  <si>
+    <t>/api/users</t>
+  </si>
+  <si>
+    <t>TC3_updateUser</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>TC4_deleteUser</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>TC11_postStudent</t>
+  </si>
+  <si>
+    <t>/students</t>
+  </si>
+  <si>
+    <t>TC12_getStudent</t>
+  </si>
+  <si>
+    <t>/students/</t>
+  </si>
+  <si>
+    <t>TC13_updateStudent</t>
+  </si>
+  <si>
+    <t>TC14_deleteStudent</t>
+  </si>
+  <si>
+    <t>TC15_getStudentDetailsAndMapToPojo</t>
+  </si>
+  <si>
+    <t>/students/1</t>
+  </si>
+  <si>
+    <t>TC16_getallStudentDetailsAndMapToPojo</t>
   </si>
 </sst>
 </file>
@@ -210,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -233,9 +296,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -591,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -614,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>13</v>
@@ -634,4 +699,260 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47145824-237F-4EEF-8213-BEFFFE8AE9B0}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C4F23104-7C77-445A-8DFA-2914D6E702F9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B38E6A4C-E4B1-40FA-894C-341FC1E32845}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{1FEF3601-5458-4DB6-815A-BE52849A820F}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{84DFFC05-0AFB-43FD-A330-581C7D534248}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{35504EA4-6164-4D3B-96AD-FF7781051F36}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{0C0C149D-9261-4A1A-9BA5-88E0229A2D28}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{3EA1E38C-DA93-424A-9BD4-30FED8DE200E}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{CDCB2D7C-8CB2-4D07-88A9-0C3BAA2FC924}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{90A194CD-C5AD-4483-9ADB-AB7A016B7EAE}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{A7F00D5E-D787-4E7D-BD64-5523E88F5979}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>